--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value900.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value900.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.99590320946205</v>
+        <v>1.46327006816864</v>
       </c>
       <c r="B1">
-        <v>2.373332228885336</v>
+        <v>3.094699859619141</v>
       </c>
       <c r="C1">
-        <v>2.465150828350776</v>
+        <v>1.743524074554443</v>
       </c>
       <c r="D1">
-        <v>3.171886284643097</v>
+        <v>1.289110064506531</v>
       </c>
       <c r="E1">
-        <v>1.580063511822002</v>
+        <v>1.122492790222168</v>
       </c>
     </row>
   </sheetData>
